--- a/ope.ed.gov/2012/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1795,52 +1792,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>787.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1851,13 +1890,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>787.0</v>
@@ -1898,13 +1937,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>787.0</v>
@@ -1925,7 +1964,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M4">
         <v>0.0</v>
@@ -1942,19 +1981,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>787.0</v>
+        <v>2130.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1972,7 +2011,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M5">
         <v>0.0</v>
@@ -1992,13 +2031,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>2130.0</v>
@@ -2039,13 +2078,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
         <v>2130.0</v>
@@ -2086,13 +2125,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>2130.0</v>
@@ -2133,13 +2172,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>2130.0</v>
@@ -2180,13 +2219,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>2130.0</v>
@@ -2227,13 +2266,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>2130.0</v>
@@ -2274,13 +2313,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>2130.0</v>
@@ -2321,13 +2360,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>2130.0</v>
@@ -2368,13 +2407,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>2130.0</v>
@@ -2412,19 +2451,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232797.0</v>
+        <v>449922.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>2130.0</v>
+        <v>223.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -2459,19 +2498,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>449922.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>223.0</v>
+        <v>263.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2506,19 +2545,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B17">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>263.0</v>
+        <v>1018.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2553,19 +2592,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B18">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>1018.0</v>
+        <v>914.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2600,19 +2639,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>914.0</v>
+        <v>1403.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2650,13 +2689,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
         <v>1403.0</v>
@@ -2697,13 +2736,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
         <v>1403.0</v>
@@ -2744,13 +2783,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
         <v>1403.0</v>
@@ -2788,19 +2827,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>1403.0</v>
+        <v>36.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2835,19 +2874,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>36.0</v>
+        <v>326.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2856,13 +2895,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J24">
         <v>0.0</v>
       </c>
       <c s="1" r="K24">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L24">
         <v>0.0</v>
@@ -2871,7 +2910,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O24">
         <v>0.0</v>
@@ -2882,19 +2921,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>326.0</v>
+        <v>207.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2903,13 +2942,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J25">
         <v>0.0</v>
       </c>
       <c s="1" r="K25">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L25">
         <v>0.0</v>
@@ -2918,7 +2957,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O25">
         <v>0.0</v>
@@ -2929,19 +2968,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>207.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2976,19 +3015,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>98.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -3023,19 +3062,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231280.0</v>
+        <v>458113.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>84.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -3070,19 +3109,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B29">
-        <v>458113.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>49.0</v>
+        <v>4694.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -3117,19 +3156,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>4694.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -3164,19 +3203,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>831.0</v>
+        <v>290.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -3211,19 +3250,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>290.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -3258,19 +3297,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>35.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -3305,19 +3344,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231581.0</v>
+        <v>459107.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>1759.0</v>
+        <v>567.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3352,19 +3391,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B35">
-        <v>459107.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>567.0</v>
+        <v>942.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3399,19 +3438,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>942.0</v>
+        <v>755.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -3446,19 +3485,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>755.0</v>
+        <v>175.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -3493,19 +3532,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B38">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>175.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3540,19 +3579,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B39">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3576,7 +3615,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O39">
         <v>0.0</v>
@@ -3587,19 +3626,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>48.0</v>
+        <v>4906.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3623,7 +3662,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O40">
         <v>0.0</v>
@@ -3637,13 +3676,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>4906.0</v>
@@ -3684,13 +3723,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>4906.0</v>
@@ -3731,13 +3770,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>4906.0</v>
@@ -3778,13 +3817,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>4906.0</v>
@@ -3822,19 +3861,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>4906.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3849,7 +3888,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K45">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L45">
         <v>0.0</v>
@@ -3869,19 +3908,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>10.0</v>
+        <v>289.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3896,7 +3935,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L46">
         <v>0.0</v>
@@ -3916,19 +3955,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>289.0</v>
+        <v>344.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3963,19 +4002,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>344.0</v>
+        <v>411.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3990,16 +4029,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K48">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L48">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M48">
         <v>0.0</v>
       </c>
       <c s="1" r="N48">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O48">
         <v>0.0</v>
@@ -4010,19 +4049,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>411.0</v>
+        <v>300.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -4037,16 +4076,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K49">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L49">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M49">
         <v>0.0</v>
       </c>
       <c s="1" r="N49">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O49">
         <v>0.0</v>
@@ -4057,19 +4096,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>300.0</v>
+        <v>156.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -4084,7 +4123,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L50">
         <v>0.0</v>
@@ -4104,19 +4143,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>156.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -4131,7 +4170,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L51">
         <v>0.0</v>
@@ -4151,19 +4190,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>1484.0</v>
+        <v>176.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -4187,7 +4226,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O52">
         <v>0.0</v>
@@ -4198,19 +4237,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>460871.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>176.0</v>
+        <v>348.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -4225,7 +4264,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L53">
         <v>0.0</v>
@@ -4245,19 +4284,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>460871.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>348.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -4272,19 +4311,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K54">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L54">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M54">
         <v>0.0</v>
       </c>
       <c s="1" r="N54">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O54">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -4292,19 +4331,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -4322,16 +4361,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L55">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M55">
         <v>0.0</v>
       </c>
       <c s="1" r="N55">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O55">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -4342,13 +4381,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
         <v>8258.0</v>
@@ -4375,7 +4414,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N56">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O56">
         <v>0.0</v>
@@ -4389,13 +4428,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
         <v>8258.0</v>
@@ -4422,7 +4461,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N57">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O57">
         <v>0.0</v>
@@ -4436,13 +4475,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
         <v>8258.0</v>
@@ -4469,7 +4508,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N58">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O58">
         <v>0.0</v>
@@ -4480,19 +4519,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B59">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>8258.0</v>
+        <v>299.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4530,13 +4569,13 @@
         <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
         <v>299.0</v>
@@ -4574,19 +4613,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B61">
-        <v>455983.0</v>
+        <v>461449.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>299.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -4621,19 +4660,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B62">
-        <v>461449.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>101.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -4668,19 +4707,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B63">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>14.0</v>
+        <v>1463.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -4715,19 +4754,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B64">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>1463.0</v>
+        <v>4420.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -4762,19 +4801,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B65">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
-        <v>4420.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -4809,19 +4848,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
-        <v>54.0</v>
+        <v>1012.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -4836,7 +4875,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K66">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L66">
         <v>0.0</v>
@@ -4845,7 +4884,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N66">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O66">
         <v>0.0</v>
@@ -4859,13 +4898,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>1012.0</v>
@@ -4883,7 +4922,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K67">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L67">
         <v>0.0</v>
@@ -4892,7 +4931,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N67">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O67">
         <v>0.0</v>
@@ -4906,13 +4945,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
         <v>1012.0</v>
@@ -4950,19 +4989,16 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B69">
-        <v>440536.0</v>
+        <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
-      </c>
-      <c s="1" r="F69">
-        <v>1012.0</v>
+        <v>150</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -4977,7 +5013,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K69">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L69">
         <v>0.0</v>
@@ -4986,7 +5022,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N69">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O69">
         <v>0.0</v>
@@ -5000,13 +5036,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -5021,7 +5057,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K70">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L70">
         <v>0.0</v>
@@ -5030,7 +5066,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N70">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O70">
         <v>0.0</v>
@@ -5044,13 +5080,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -5085,16 +5121,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B72">
-        <v>482653.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c s="1" r="F72">
+        <v>37.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -5129,19 +5168,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B73">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
-        <v>37.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -5159,7 +5198,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L73">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M73">
         <v>0.0</v>
@@ -5176,19 +5215,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B74">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
-        <v>1519.0</v>
+        <v>990.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -5206,7 +5245,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L74">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M74">
         <v>0.0</v>
@@ -5223,19 +5262,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B75">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
-        <v>990.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -5270,19 +5309,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B76">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>993.0</v>
+        <v>9840.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -5320,13 +5359,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
         <v>9840.0</v>
@@ -5367,13 +5406,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
         <v>9840.0</v>
@@ -5414,13 +5453,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
         <v>9840.0</v>
@@ -5461,13 +5500,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
         <v>9840.0</v>
@@ -5508,13 +5547,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
         <v>9840.0</v>
@@ -5555,13 +5594,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
         <v>9840.0</v>
@@ -5602,13 +5641,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
         <v>9840.0</v>
@@ -5649,13 +5688,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
         <v>9840.0</v>
@@ -5696,13 +5735,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
         <v>9840.0</v>
@@ -5743,13 +5782,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
         <v>9840.0</v>
@@ -5790,13 +5829,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
         <v>9840.0</v>
@@ -5837,13 +5876,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F88">
         <v>9840.0</v>
@@ -5884,13 +5923,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
         <v>9840.0</v>
@@ -5928,19 +5967,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B90">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>9840.0</v>
+        <v>1144.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5978,13 +6017,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
         <v>1144.0</v>
@@ -6022,19 +6061,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B92">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
-        <v>1144.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -6069,19 +6108,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B93">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
-        <v>945.0</v>
+        <v>137.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -6096,7 +6135,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K93">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L93">
         <v>0.0</v>
@@ -6116,19 +6155,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B94">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>137.0</v>
+        <v>121.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -6143,7 +6182,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K94">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L94">
         <v>0.0</v>
@@ -6163,19 +6202,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B95">
-        <v>450599.0</v>
+        <v>476179.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>121.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -6210,19 +6249,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B96">
-        <v>476179.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
-        <v>59.0</v>
+        <v>725.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -6257,19 +6296,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B97">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
-        <v>725.0</v>
+        <v>335.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -6304,19 +6343,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B98">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>335.0</v>
+        <v>351.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -6351,19 +6390,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B99">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
-        <v>351.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -6398,19 +6437,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
-        <v>1510.0</v>
+        <v>392.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -6445,19 +6484,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B101">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
-        <v>392.0</v>
+        <v>534.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -6492,19 +6531,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B102">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
-        <v>534.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -6513,7 +6552,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I102">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J102">
         <v>0.0</v>
@@ -6528,7 +6567,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N102">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O102">
         <v>0.0</v>
@@ -6539,19 +6578,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
-        <v>32961.0</v>
+        <v>7520.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -6560,7 +6599,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I103">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J103">
         <v>0.0</v>
@@ -6575,7 +6614,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N103">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O103">
         <v>0.0</v>
@@ -6589,13 +6628,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
         <v>7520.0</v>
@@ -6636,13 +6675,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
         <v>7520.0</v>
@@ -6683,13 +6722,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
         <v>7520.0</v>
@@ -6727,19 +6766,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B107">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
-        <v>7520.0</v>
+        <v>265.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -6774,19 +6813,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B108">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
-        <v>265.0</v>
+        <v>195.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -6821,19 +6860,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B109">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
-        <v>195.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -6868,19 +6907,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6918,13 +6957,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
         <v>4765.0</v>
@@ -6962,19 +7001,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
-        <v>4765.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -7009,19 +7048,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B113">
-        <v>431266.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
-        <v>84.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -7056,19 +7095,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B114">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
-        <v>794.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -7103,19 +7142,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B115">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>84.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -7150,19 +7189,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B116">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
-        <v>3.0</v>
+        <v>607.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -7197,19 +7236,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B117">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
-        <v>607.0</v>
+        <v>901.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -7244,19 +7283,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B118">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
-        <v>901.0</v>
+        <v>585.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -7291,19 +7330,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B119">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>585.0</v>
+        <v>207.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -7338,19 +7377,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B120">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
-        <v>207.0</v>
+        <v>720.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -7385,19 +7424,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B121">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
-        <v>720.0</v>
+        <v>12846.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -7435,13 +7474,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
         <v>12846.0</v>
@@ -7482,13 +7521,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
         <v>12846.0</v>
@@ -7526,19 +7565,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B124">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
-        <v>12846.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -7562,7 +7601,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N124">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O124">
         <v>0.0</v>
@@ -7576,13 +7615,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
         <v>19927.0</v>
@@ -7609,7 +7648,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N125">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O125">
         <v>0.0</v>
@@ -7623,13 +7662,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
         <v>19927.0</v>
@@ -7670,13 +7709,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
         <v>19927.0</v>
@@ -7714,19 +7753,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
-        <v>19927.0</v>
+        <v>1048.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -7761,19 +7800,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B129">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
-        <v>1048.0</v>
+        <v>10145.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -7811,13 +7850,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
         <v>10145.0</v>
@@ -7858,13 +7897,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
         <v>10145.0</v>
@@ -7905,13 +7944,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
         <v>10145.0</v>
@@ -7949,19 +7988,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
-        <v>10145.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -7970,7 +8009,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I133">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J133">
         <v>0.0</v>
@@ -7996,19 +8035,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -8017,13 +8056,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J134">
         <v>0.0</v>
       </c>
       <c s="1" r="K134">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L134">
         <v>0.0</v>
@@ -8032,7 +8071,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N134">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O134">
         <v>0.0</v>
@@ -8046,13 +8085,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
         <v>4834.0</v>
@@ -8064,13 +8103,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I135">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J135">
         <v>0.0</v>
       </c>
       <c s="1" r="K135">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L135">
         <v>0.0</v>
@@ -8079,7 +8118,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N135">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O135">
         <v>0.0</v>
@@ -8093,13 +8132,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
         <v>4834.0</v>
@@ -8137,19 +8176,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B137">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
-        <v>4834.0</v>
+        <v>7288.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -8187,13 +8226,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
         <v>7288.0</v>
@@ -8234,13 +8273,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
         <v>7288.0</v>
@@ -8278,19 +8317,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>7288.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -8308,7 +8347,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L140">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M140">
         <v>0.0</v>
@@ -8325,19 +8364,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
-        <v>2756.0</v>
+        <v>167.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -8355,7 +8394,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L141">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M141">
         <v>0.0</v>
@@ -8372,19 +8411,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
-        <v>167.0</v>
+        <v>1791.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -8419,19 +8458,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B143">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
-        <v>1791.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -8466,19 +8505,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B144">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
-        <v>3702.0</v>
+        <v>1545.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -8516,13 +8555,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
         <v>1545.0</v>
@@ -8563,13 +8602,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
         <v>1545.0</v>
@@ -8607,19 +8646,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B147">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
-        <v>1545.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -8654,19 +8693,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B148">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
-        <v>445.0</v>
+        <v>3089.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -8701,19 +8740,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
-        <v>3089.0</v>
+        <v>5083.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -8748,19 +8787,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B150">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
-        <v>5083.0</v>
+        <v>7100.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -8775,10 +8814,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K150">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L150">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M150">
         <v>0.0</v>
@@ -8795,19 +8834,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B151">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>7100.0</v>
+        <v>51864.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8822,10 +8861,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K151">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L151">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M151">
         <v>0.0</v>
@@ -8845,13 +8884,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
         <v>51864.0</v>
@@ -8892,13 +8931,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
         <v>51864.0</v>
@@ -8939,13 +8978,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
         <v>51864.0</v>
@@ -8986,13 +9025,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
         <v>51864.0</v>
@@ -9033,13 +9072,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
         <v>51864.0</v>
@@ -9080,13 +9119,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
         <v>51864.0</v>
@@ -9127,13 +9166,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
         <v>51864.0</v>
@@ -9174,13 +9213,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
         <v>51864.0</v>
@@ -9221,13 +9260,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
         <v>51864.0</v>
@@ -9268,13 +9307,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F161">
         <v>51864.0</v>
@@ -9315,13 +9354,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F162">
         <v>51864.0</v>
@@ -9362,13 +9401,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
         <v>51864.0</v>
@@ -9409,13 +9448,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
         <v>51864.0</v>
@@ -9453,19 +9492,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B165">
-        <v>232946.0</v>
+        <v>461412.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
-        <v>51864.0</v>
+        <v>78.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9500,19 +9539,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B166">
-        <v>461412.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>78.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9521,22 +9560,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J166">
         <v>0.0</v>
       </c>
       <c s="1" r="K166">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L166">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M166">
         <v>0.0</v>
       </c>
       <c s="1" r="N166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O166">
         <v>0.0</v>
@@ -9547,19 +9586,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B167">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>24670.0</v>
+        <v>3079.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9568,22 +9607,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J167">
         <v>0.0</v>
       </c>
       <c s="1" r="K167">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L167">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M167">
         <v>0.0</v>
       </c>
       <c s="1" r="N167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O167">
         <v>0.0</v>
@@ -9594,19 +9633,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>3079.0</v>
+        <v>1493.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9644,13 +9683,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
         <v>1493.0</v>
@@ -9688,19 +9727,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
-        <v>1493.0</v>
+        <v>214.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9735,19 +9774,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B171">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
-        <v>214.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -9782,19 +9821,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
-        <v>5693.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -9829,19 +9868,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
-        <v>9573.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -9876,19 +9915,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>645.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9923,19 +9962,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>1312.0</v>
+        <v>3711.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9973,13 +10012,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
         <v>3711.0</v>
@@ -10020,13 +10059,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
         <v>3711.0</v>
@@ -10064,19 +10103,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233310.0</v>
+        <v>467605.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
-        <v>3711.0</v>
+        <v>91.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -10111,19 +10150,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B179">
-        <v>467605.0</v>
+        <v>476133.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
-        <v>91.0</v>
+        <v>118.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -10158,19 +10197,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B180">
-        <v>476133.0</v>
+        <v>467650.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
-        <v>118.0</v>
+        <v>81.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -10205,19 +10244,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B181">
-        <v>467650.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
-        <v>81.0</v>
+        <v>5635.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -10252,19 +10291,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B182">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
-        <v>5635.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -10299,19 +10338,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
-        <v>1532.0</v>
+        <v>196.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -10346,19 +10385,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B184">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
-        <v>196.0</v>
+        <v>326.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -10393,19 +10432,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B185">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
-        <v>326.0</v>
+        <v>2060.0</v>
       </c>
       <c s="1" r="G185">
         <v>0.0</v>
@@ -10429,7 +10468,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N185">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O185">
         <v>0.0</v>
@@ -10440,19 +10479,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
-        <v>2060.0</v>
+        <v>272.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -10487,22 +10526,22 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B187">
-        <v>441876.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
-        <v>272.0</v>
+        <v>733.0</v>
       </c>
       <c s="1" r="G187">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H187">
         <v>0.0</v>
@@ -10523,7 +10562,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N187">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O187">
         <v>0.0</v>
@@ -10534,22 +10573,22 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B188">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
-        <v>733.0</v>
+        <v>365.0</v>
       </c>
       <c s="1" r="G188">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H188">
         <v>0.0</v>
@@ -10581,19 +10620,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B189">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
-        <v>365.0</v>
+        <v>4176.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -10611,7 +10650,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L189">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M189">
         <v>0.0</v>
@@ -10628,19 +10667,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
-        <v>4176.0</v>
+        <v>214.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -10658,7 +10697,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L190">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M190">
         <v>0.0</v>
@@ -10675,19 +10714,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B191">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
-        <v>214.0</v>
+        <v>633.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -10696,16 +10735,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J191">
         <v>0.0</v>
       </c>
       <c s="1" r="K191">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L191">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M191">
         <v>0.0</v>
@@ -10722,19 +10761,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B192">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
-        <v>633.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -10743,16 +10782,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J192">
         <v>0.0</v>
       </c>
       <c s="1" r="K192">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L192">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M192">
         <v>0.0</v>
@@ -10769,19 +10808,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B193">
-        <v>459268.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
-        <v>635.0</v>
+        <v>730.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -10790,7 +10829,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I193">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J193">
         <v>0.0</v>
@@ -10816,19 +10855,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
-        <v>730.0</v>
+        <v>127.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -10837,7 +10876,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I194">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J194">
         <v>0.0</v>
@@ -10863,19 +10902,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
-        <v>127.0</v>
+        <v>6042.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -10910,19 +10949,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B196">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
-        <v>6042.0</v>
+        <v>2766.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -10957,19 +10996,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B197">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
-        <v>2766.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -11004,19 +11043,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B198">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
-        <v>69.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -11051,19 +11090,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
-        <v>35.0</v>
+        <v>2733.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -11098,19 +11137,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B200">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
-        <v>2733.0</v>
+        <v>8991.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -11125,10 +11164,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K200">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L200">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M200">
         <v>0.0</v>
@@ -11148,13 +11187,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
         <v>8991.0</v>
@@ -11172,10 +11211,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K201">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L201">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M201">
         <v>0.0</v>
@@ -11195,13 +11234,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
         <v>8991.0</v>
@@ -11242,13 +11281,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
         <v>8991.0</v>
@@ -11275,7 +11314,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N203">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O203">
         <v>0.0</v>
@@ -11289,13 +11328,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
         <v>8991.0</v>
@@ -11322,7 +11361,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N204">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O204">
         <v>0.0</v>
@@ -11336,13 +11375,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
         <v>8991.0</v>
@@ -11383,13 +11422,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
         <v>8991.0</v>
@@ -11430,13 +11469,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F207">
         <v>8991.0</v>
@@ -11477,13 +11516,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F208">
         <v>8991.0</v>
@@ -11501,7 +11540,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K208">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L208">
         <v>0.0</v>
@@ -11524,13 +11563,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
         <v>8991.0</v>
@@ -11542,7 +11581,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I209">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J209">
         <v>0.0</v>
@@ -11571,13 +11610,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
         <v>8991.0</v>
@@ -11589,7 +11628,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I210">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J210">
         <v>0.0</v>
@@ -11598,7 +11637,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="L210">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M210">
         <v>0.0</v>
@@ -11615,19 +11654,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B211">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
-        <v>8991.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -11642,10 +11681,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K211">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L211">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M211">
         <v>0.0</v>
@@ -11662,19 +11701,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B212">
-        <v>231721.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F212">
-        <v>43.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -11709,19 +11748,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B213">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F213">
-        <v>739.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -11756,19 +11795,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B214">
-        <v>233286.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
-        <v>62.0</v>
+        <v>550.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -11803,19 +11842,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B215">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
-        <v>550.0</v>
+        <v>1557.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -11830,7 +11869,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K215">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L215">
         <v>0.0</v>
@@ -11839,7 +11878,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N215">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O215">
         <v>0.0</v>
@@ -11850,19 +11889,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B216">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F216">
-        <v>1557.0</v>
+        <v>234.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -11877,7 +11916,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K216">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L216">
         <v>0.0</v>
@@ -11886,7 +11925,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N216">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O216">
         <v>0.0</v>
@@ -11897,19 +11936,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B217">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F217">
-        <v>234.0</v>
+        <v>2420.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -11944,19 +11983,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F218">
-        <v>2420.0</v>
+        <v>10942.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -11991,19 +12030,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F219">
-        <v>10942.0</v>
+        <v>30134.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -12012,7 +12051,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I219">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J219">
         <v>0.0</v>
@@ -12027,7 +12066,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N219">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O219">
         <v>0.0</v>
@@ -12041,13 +12080,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D220">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F220">
         <v>30134.0</v>
@@ -12059,7 +12098,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I220">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J220">
         <v>0.0</v>
@@ -12074,7 +12113,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N220">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O220">
         <v>0.0</v>
@@ -12088,13 +12127,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D221">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F221">
         <v>30134.0</v>
@@ -12135,13 +12174,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D222">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F222">
         <v>30134.0</v>
@@ -12182,13 +12221,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D223">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F223">
         <v>30134.0</v>
@@ -12200,22 +12239,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I223">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J223">
         <v>0.0</v>
       </c>
       <c s="1" r="K223">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L223">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M223">
         <v>0.0</v>
       </c>
       <c s="1" r="N223">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O223">
         <v>0.0</v>
@@ -12229,13 +12268,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D224">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F224">
         <v>30134.0</v>
@@ -12247,22 +12286,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I224">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J224">
         <v>0.0</v>
       </c>
       <c s="1" r="K224">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L224">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M224">
         <v>0.0</v>
       </c>
       <c s="1" r="N224">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O224">
         <v>0.0</v>
@@ -12276,13 +12315,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D225">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F225">
         <v>30134.0</v>
@@ -12320,19 +12359,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B226">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D226">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F226">
-        <v>30134.0</v>
+        <v>241.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
@@ -12367,19 +12406,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B227">
-        <v>232919.0</v>
+        <v>476568.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F227">
-        <v>241.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G227">
         <v>0.0</v>
@@ -12394,7 +12433,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K227">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L227">
         <v>0.0</v>
@@ -12414,19 +12453,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B228">
-        <v>476568.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D228">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F228">
-        <v>18.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G228">
         <v>0.0</v>
@@ -12441,7 +12480,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K228">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L228">
         <v>0.0</v>
@@ -12464,13 +12503,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D229">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F229">
         <v>211.0</v>
@@ -12508,19 +12547,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B230">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D230">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F230">
-        <v>211.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G230">
         <v>0.0</v>
@@ -12538,7 +12577,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L230">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M230">
         <v>0.0</v>
@@ -12558,13 +12597,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D231">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F231">
         <v>5093.0</v>
@@ -12585,7 +12624,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L231">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M231">
         <v>0.0</v>
@@ -12605,13 +12644,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D232">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F232">
         <v>5093.0</v>
@@ -12649,19 +12688,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B233">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D233">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F233">
-        <v>5093.0</v>
+        <v>989.0</v>
       </c>
       <c s="1" r="G233">
         <v>0.0</v>
@@ -12696,19 +12735,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B234">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D234">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F234">
-        <v>989.0</v>
+        <v>748.0</v>
       </c>
       <c s="1" r="G234">
         <v>0.0</v>
@@ -12743,19 +12782,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B235">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D235">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F235">
-        <v>748.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G235">
         <v>0.0</v>
@@ -12790,19 +12829,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B236">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D236">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F236">
-        <v>4361.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="G236">
         <v>0.0</v>
@@ -12837,19 +12876,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B237">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D237">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F237">
-        <v>19.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G237">
         <v>0.0</v>
@@ -12858,7 +12897,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I237">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J237">
         <v>0.0</v>
@@ -12867,13 +12906,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L237">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M237">
         <v>0.0</v>
       </c>
       <c s="1" r="N237">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O237">
         <v>0.0</v>
@@ -12887,13 +12926,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D238">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F238">
         <v>23907.0</v>
@@ -12905,7 +12944,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I238">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J238">
         <v>0.0</v>
@@ -12914,13 +12953,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L238">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M238">
         <v>0.0</v>
       </c>
       <c s="1" r="N238">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O238">
         <v>0.0</v>
@@ -12934,13 +12973,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D239">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F239">
         <v>23907.0</v>
@@ -12981,13 +13020,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D240">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F240">
         <v>23907.0</v>
@@ -13014,7 +13053,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N240">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O240">
         <v>0.0</v>
@@ -13028,13 +13067,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D241">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F241">
         <v>23907.0</v>
@@ -13061,7 +13100,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N241">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O241">
         <v>0.0</v>
@@ -13075,13 +13114,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D242">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F242">
         <v>23907.0</v>
@@ -13119,19 +13158,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B243">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D243">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F243">
-        <v>23907.0</v>
+        <v>42.0</v>
       </c>
       <c s="1" r="G243">
         <v>0.0</v>
@@ -13166,19 +13205,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B244">
-        <v>377485.0</v>
+        <v>460923.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D244">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F244">
-        <v>42.0</v>
+        <v>413.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
@@ -13187,22 +13226,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I244">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J244">
         <v>0.0</v>
       </c>
       <c s="1" r="K244">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L244">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M244">
         <v>0.0</v>
       </c>
       <c s="1" r="N244">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O244">
         <v>0.0</v>
@@ -13213,19 +13252,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B245">
-        <v>460923.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F245">
-        <v>413.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G245">
         <v>0.0</v>
@@ -13234,22 +13273,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I245">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J245">
         <v>0.0</v>
       </c>
       <c s="1" r="K245">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="L245">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="M245">
         <v>0.0</v>
       </c>
       <c s="1" r="N245">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="O245">
         <v>0.0</v>
@@ -13263,13 +13302,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D246">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F246">
         <v>31445.0</v>
@@ -13281,22 +13320,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I246">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J246">
         <v>0.0</v>
       </c>
       <c s="1" r="K246">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L246">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M246">
         <v>0.0</v>
       </c>
       <c s="1" r="N246">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O246">
         <v>0.0</v>
@@ -13310,13 +13349,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D247">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F247">
         <v>31445.0</v>
@@ -13343,7 +13382,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N247">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O247">
         <v>0.0</v>
@@ -13357,13 +13396,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D248">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F248">
         <v>31445.0</v>
@@ -13401,19 +13440,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D249">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F249">
-        <v>31445.0</v>
+        <v>2570.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -13448,19 +13487,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B250">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F250">
-        <v>2570.0</v>
+        <v>496.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -13495,19 +13534,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B251">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F251">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
@@ -13542,19 +13581,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F252">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G252">
         <v>0.0</v>
@@ -13592,13 +13631,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C253">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D253">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E253">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F253">
         <v>31087.0</v>
@@ -13639,13 +13678,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C254">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D254">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E254">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F254">
         <v>31087.0</v>
@@ -13686,13 +13725,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C255">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D255">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E255">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F255">
         <v>31087.0</v>
@@ -13733,13 +13772,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C256">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c s="1" r="D256">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E256">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c s="1" r="F256">
         <v>31087.0</v>
@@ -13780,13 +13819,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C257">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c s="1" r="D257">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E257">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c s="1" r="F257">
         <v>31087.0</v>
@@ -13827,13 +13866,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C258">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c s="1" r="D258">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E258">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c s="1" r="F258">
         <v>31087.0</v>
@@ -13874,13 +13913,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C259">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c s="1" r="D259">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E259">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c s="1" r="F259">
         <v>31087.0</v>
@@ -13921,13 +13960,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C260">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c s="1" r="D260">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E260">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c s="1" r="F260">
         <v>31087.0</v>
@@ -13968,13 +14007,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C261">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c s="1" r="D261">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E261">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c s="1" r="F261">
         <v>31087.0</v>
@@ -14015,13 +14054,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C262">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c s="1" r="D262">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E262">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c s="1" r="F262">
         <v>31087.0</v>
@@ -14062,13 +14101,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C263">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c s="1" r="D263">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E263">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c s="1" r="F263">
         <v>31087.0</v>
@@ -14109,13 +14148,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C264">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c s="1" r="D264">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E264">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c s="1" r="F264">
         <v>31087.0</v>
@@ -14153,19 +14192,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B265">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C265">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c s="1" r="D265">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E265">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c s="1" r="F265">
-        <v>31087.0</v>
+        <v>124.0</v>
       </c>
       <c s="1" r="G265">
         <v>0.0</v>
@@ -14200,19 +14239,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B266">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C266">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c s="1" r="D266">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E266">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c s="1" r="F266">
-        <v>124.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="G266">
         <v>0.0</v>
@@ -14247,19 +14286,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B267">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C267">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c s="1" r="D267">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E267">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c s="1" r="F267">
-        <v>33.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G267">
         <v>0.0</v>
@@ -14294,19 +14333,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B268">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C268">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c s="1" r="D268">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E268">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c s="1" r="F268">
-        <v>6208.0</v>
+        <v>1751.0</v>
       </c>
       <c s="1" r="G268">
         <v>0.0</v>
@@ -14341,19 +14380,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B269">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C269">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c s="1" r="D269">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E269">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c s="1" r="F269">
-        <v>1751.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G269">
         <v>0.0</v>
@@ -14388,19 +14427,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B270">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C270">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c s="1" r="D270">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E270">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c s="1" r="F270">
-        <v>540.0</v>
+        <v>1431.0</v>
       </c>
       <c s="1" r="G270">
         <v>0.0</v>
@@ -14435,19 +14474,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B271">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C271">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c s="1" r="D271">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E271">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c s="1" r="F271">
-        <v>1431.0</v>
+        <v>8440.0</v>
       </c>
       <c s="1" r="G271">
         <v>0.0</v>
@@ -14482,19 +14521,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B272">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C272">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c s="1" r="D272">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E272">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c s="1" r="F272">
-        <v>8440.0</v>
+        <v>136.0</v>
       </c>
       <c s="1" r="G272">
         <v>0.0</v>
@@ -14509,10 +14548,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K272">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L272">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M272">
         <v>0.0</v>
@@ -14529,19 +14568,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B273">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C273">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c s="1" r="D273">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E273">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c s="1" r="F273">
-        <v>136.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G273">
         <v>0.0</v>
@@ -14556,10 +14595,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K273">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L273">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M273">
         <v>0.0</v>
@@ -14576,19 +14615,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B274">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C274">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c s="1" r="D274">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E274">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c s="1" r="F274">
-        <v>35.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G274">
         <v>0.0</v>
@@ -14623,19 +14662,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B275">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C275">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c s="1" r="D275">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E275">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c s="1" r="F275">
-        <v>2302.0</v>
+        <v>73.0</v>
       </c>
       <c s="1" r="G275">
         <v>0.0</v>
@@ -14670,19 +14709,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B276">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C276">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c s="1" r="D276">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E276">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c s="1" r="F276">
-        <v>73.0</v>
+        <v>431.0</v>
       </c>
       <c s="1" r="G276">
         <v>0.0</v>
@@ -14717,19 +14756,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B277">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C277">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c s="1" r="D277">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E277">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c s="1" r="F277">
-        <v>431.0</v>
+        <v>476.0</v>
       </c>
       <c s="1" r="G277">
         <v>0.0</v>
@@ -14764,19 +14803,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B278">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C278">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c s="1" r="D278">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E278">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c s="1" r="F278">
-        <v>476.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G278">
         <v>0.0</v>
@@ -14794,7 +14833,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L278">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M278">
         <v>0.0</v>
@@ -14811,19 +14850,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B279">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C279">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c s="1" r="D279">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E279">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c s="1" r="F279">
-        <v>151.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G279">
         <v>0.0</v>
@@ -14841,7 +14880,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L279">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M279">
         <v>0.0</v>
@@ -14850,53 +14889,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O279">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c s="1" r="A280">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B280">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C280">
-        <v>570</v>
-      </c>
-      <c s="1" r="D280">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E280">
-        <v>571</v>
-      </c>
-      <c s="1" r="F280">
-        <v>3717.0</v>
-      </c>
-      <c s="1" r="G280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O280">
         <v>0.0</v>
       </c>
     </row>
